--- a/excel/excel.xlsx
+++ b/excel/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyabaron/Desktop/CS480x/02-DataVis-5Ways/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9E0192-8A79-F64E-901C-E6CBBD1F15F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59333B5F-2997-EA4F-A38C-EC96D3DB39F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27540" windowHeight="17040" xr2:uid="{FA7A0FFA-F09A-774A-A88C-6E656381EE91}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27540" windowHeight="17040" xr2:uid="{FA7A0FFA-F09A-774A-A88C-6E656381EE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8789,8 +8789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80A9F75-B202-BC4C-9B9A-9A0A52534373}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
